--- a/memes/assets/dataset copy.xlsx
+++ b/memes/assets/dataset copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keyur/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keyur/meme_generator/memes/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB15313-CF91-3C43-9E97-6BCCA054C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A22BD-258C-7244-AF34-FCDC81DC5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset copy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Input</t>
   </si>
@@ -290,13 +290,19 @@
   </si>
   <si>
     <t>I'm bored... Can someone please rescue me from this monotony?</t>
+  </si>
+  <si>
+    <t>I’m not crying, it’s just my allergies to life acting up again</t>
+  </si>
+  <si>
+    <t>im not sad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +436,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -773,8 +785,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1149,10 +1162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1519,6 +1534,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
